--- a/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200223.xlsx
+++ b/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200223.xlsx
@@ -10280,14 +10280,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10359,11 +10359,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -10372,44 +10367,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10431,6 +10391,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -10445,9 +10419,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10460,6 +10456,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
@@ -10467,9 +10471,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10492,24 +10503,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10536,7 +10531,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10548,7 +10567,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10560,7 +10615,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10572,25 +10627,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10602,31 +10681,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10638,85 +10705,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10730,17 +10725,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10763,11 +10754,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10788,16 +10785,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10819,161 +10816,159 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11021,13 +11016,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11352,7 +11344,7 @@
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="R23" sqref="R23"/>
+      <selection pane="topRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8409090909091" defaultRowHeight="15.6"/>
@@ -11565,10 +11557,10 @@
       <c r="T2" s="12">
         <v>43885.4576388889</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="20" t="s">
         <v>46</v>
       </c>
       <c r="W2" s="12"/>
@@ -11644,10 +11636,10 @@
       <c r="T3" s="12">
         <v>43885.4576388889</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="V3" s="20" t="s">
         <v>46</v>
       </c>
       <c r="Z3" s="12">
@@ -11717,10 +11709,10 @@
       <c r="T4" s="12">
         <v>43885.4576388889</v>
       </c>
-      <c r="U4" s="20" t="s">
+      <c r="U4" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="V4" s="20" t="s">
         <v>46</v>
       </c>
       <c r="Z4" s="12">
@@ -11793,10 +11785,10 @@
       <c r="T5" s="12">
         <v>43885.4576388889</v>
       </c>
-      <c r="U5" s="20" t="s">
+      <c r="U5" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="21" t="s">
+      <c r="V5" s="20" t="s">
         <v>46</v>
       </c>
       <c r="Z5" s="12">
@@ -11866,10 +11858,10 @@
       <c r="T6" s="12">
         <v>43885.4576388889</v>
       </c>
-      <c r="U6" s="20" t="s">
+      <c r="U6" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V6" s="21" t="s">
+      <c r="V6" s="20" t="s">
         <v>46</v>
       </c>
       <c r="Z6" s="12">
@@ -11942,10 +11934,10 @@
       <c r="T7" s="12">
         <v>43885.4576388889</v>
       </c>
-      <c r="U7" s="20" t="s">
+      <c r="U7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V7" s="21" t="s">
+      <c r="V7" s="20" t="s">
         <v>46</v>
       </c>
       <c r="Z7" s="12">
@@ -12018,10 +12010,10 @@
       <c r="T8" s="12">
         <v>43885.4576388889</v>
       </c>
-      <c r="U8" s="20" t="s">
+      <c r="U8" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V8" s="21" t="s">
+      <c r="V8" s="20" t="s">
         <v>46</v>
       </c>
       <c r="Z8" s="12">
@@ -12091,10 +12083,10 @@
       <c r="T9" s="12">
         <v>43885.4576388889</v>
       </c>
-      <c r="U9" s="20" t="s">
+      <c r="U9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V9" s="21" t="s">
+      <c r="V9" s="20" t="s">
         <v>46</v>
       </c>
       <c r="Z9" s="12">
@@ -12164,10 +12156,10 @@
       <c r="T10" s="12">
         <v>43885.4576388889</v>
       </c>
-      <c r="U10" s="20" t="s">
+      <c r="U10" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V10" s="21" t="s">
+      <c r="V10" s="20" t="s">
         <v>46</v>
       </c>
       <c r="Z10" s="12">
@@ -12237,10 +12229,10 @@
       <c r="T11" s="12">
         <v>43885.4576388889</v>
       </c>
-      <c r="U11" s="20" t="s">
+      <c r="U11" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V11" s="21" t="s">
+      <c r="V11" s="20" t="s">
         <v>46</v>
       </c>
       <c r="Z11" s="12">
@@ -12307,10 +12299,10 @@
       <c r="T12" s="12">
         <v>43885.4576388889</v>
       </c>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V12" s="21" t="s">
+      <c r="V12" s="20" t="s">
         <v>46</v>
       </c>
       <c r="Z12" s="12">
@@ -12380,10 +12372,10 @@
       <c r="T13" s="12">
         <v>43885.4576388889</v>
       </c>
-      <c r="U13" s="20" t="s">
+      <c r="U13" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V13" s="21" t="s">
+      <c r="V13" s="20" t="s">
         <v>46</v>
       </c>
       <c r="Z13" s="12">
@@ -12453,10 +12445,10 @@
       <c r="T14" s="12">
         <v>43885.4576388889</v>
       </c>
-      <c r="U14" s="20" t="s">
+      <c r="U14" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V14" s="21" t="s">
+      <c r="V14" s="20" t="s">
         <v>46</v>
       </c>
       <c r="Z14" s="12">
@@ -12523,10 +12515,10 @@
       <c r="T15" s="12">
         <v>43885.4576388889</v>
       </c>
-      <c r="U15" s="20" t="s">
+      <c r="U15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V15" s="21" t="s">
+      <c r="V15" s="20" t="s">
         <v>46</v>
       </c>
       <c r="Z15" s="12">
@@ -12596,10 +12588,10 @@
       <c r="T16" s="12">
         <v>43885.4576388889</v>
       </c>
-      <c r="U16" s="20" t="s">
+      <c r="U16" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V16" s="21" t="s">
+      <c r="V16" s="20" t="s">
         <v>46</v>
       </c>
       <c r="Z16" s="12">
@@ -12669,10 +12661,10 @@
       <c r="T17" s="12">
         <v>43885.4576388889</v>
       </c>
-      <c r="U17" s="20" t="s">
+      <c r="U17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V17" s="21" t="s">
+      <c r="V17" s="20" t="s">
         <v>46</v>
       </c>
       <c r="Z17" s="12">
@@ -12733,10 +12725,10 @@
       <c r="T18" s="12">
         <v>43885.4576388889</v>
       </c>
-      <c r="U18" s="20" t="s">
+      <c r="U18" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V18" s="21" t="s">
+      <c r="V18" s="20" t="s">
         <v>46</v>
       </c>
       <c r="Z18" s="12">
@@ -12784,7 +12776,9 @@
       <c r="G19" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="M19" s="16"/>
+      <c r="M19" s="16">
+        <v>253</v>
+      </c>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="S19" s="11" t="s">
@@ -12793,10 +12787,10 @@
       <c r="T19" s="12">
         <v>43885.4576388889</v>
       </c>
-      <c r="U19" s="20" t="s">
+      <c r="U19" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V19" s="21" t="s">
+      <c r="V19" s="20" t="s">
         <v>46</v>
       </c>
       <c r="Z19" s="12">
@@ -12853,10 +12847,10 @@
       <c r="T20" s="12">
         <v>43885.4576388889</v>
       </c>
-      <c r="U20" s="20" t="s">
+      <c r="U20" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V20" s="21" t="s">
+      <c r="V20" s="20" t="s">
         <v>46</v>
       </c>
       <c r="Z20" s="12">
@@ -12919,7 +12913,7 @@
       </c>
       <c r="M21" s="11">
         <f>SUM(M2:M20)</f>
-        <v>64287</v>
+        <v>64540</v>
       </c>
       <c r="N21" s="11">
         <v>2770</v>
@@ -12945,10 +12939,10 @@
       <c r="T21" s="12">
         <v>43885.4576388889</v>
       </c>
-      <c r="U21" s="20" t="s">
+      <c r="U21" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V21" s="21" t="s">
+      <c r="V21" s="20" t="s">
         <v>46</v>
       </c>
       <c r="Z21" s="12">
@@ -12982,24 +12976,27 @@
       <c r="E22" s="16"/>
     </row>
     <row r="26" spans="14:14">
-      <c r="N26" s="19"/>
+      <c r="N26" s="16"/>
     </row>
     <row r="27" spans="14:14">
-      <c r="N27" s="19"/>
+      <c r="N27" s="16"/>
     </row>
     <row r="28" spans="14:14">
-      <c r="N28" s="19"/>
+      <c r="N28" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576">
+      <formula1>"核查通过,核查未通过"</formula1>
+    </dataValidation>
     <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R21 I2:I9 I11:I20 K2:K11 K13:K17 K19:K21 L2:L20 M19:M21 N22:N25 N29:N1048576 K22:M1048576 O23:R1048576 O21:Q22 N2:R20 I21:J1048576">
       <formula1>0</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
+      <formula1>"未核查,已核查"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B22:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
-      <formula1>"未核查,已核查"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F2:F21">
       <formula1>#REF!</formula1>
@@ -13015,9 +13012,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576 AE2:AE1048576 AK2:AK1048576">
       <formula1>"手动,自动"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576">
-      <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
